--- a/output.xlsx
+++ b/output.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>FREEZE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>STOP</t>
         </is>
       </c>
     </row>
